--- a/export_file/log.xlsx
+++ b/export_file/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,59 +421,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>BT321</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>BT-Trung Tâm Giáo Dục Thường Xuyên Bến Tre</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Anh Sang</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1xEFYABUYbkEyG7aloGWocquDntuK3DYWsZ2-lQxuFms</t>
-        </is>
-      </c>
-    </row>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CE201</t>
+          <t>NH122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CE-Trường Cao Đẳng Công Thương TP HCM</t>
+          <t>NH-Cơ Sở 5 - Ninh Hoà</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anh Sang</t>
+          <t>Anh Triển</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1SgNFQVMCqFrRflj9v0eeQJEpRVEpTQv217Kw1u5OPwU</t>
+          <t>1QrDioX-aK2CsrJrJa7eBQI7GljaYZ0ni5WKIevRpVNs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SG111</t>
+          <t>TB107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG-Trường Trung Cấp Du Lịch Và Khách Sạn Sài Gòn Tourist</t>
+          <t>TB-Trung Tâm Chính Trị Quận Tân Bình</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,139 +462,2471 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11xv1gT3rYHgnQGoIosPH4Dl2u2FDB4jkqg5psL5H9Rs</t>
+          <t>1G__SW5hxpaV160cDEq_jKX55A3qrlp_jENrAQtIElm8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HA201</t>
+          <t>XL101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HA- BỆNH VIỆN CHỈNH HÌNH VÀ PHỤC HỒI CHỨC NĂNG TPHCM</t>
+          <t>XL-Trung Tâm GDNN - GDTX  Huyện Xuân Lộc, Đồng Nai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anh Sinh</t>
+          <t>Anh Sang</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16rdvOqcKeSDcIONdECXSMZpfB9CNVO0RCzUknmH8lvg</t>
+          <t>1H7c2OtcX94SLWX5LxpFdSTklTfD7vAaBQFmdCNYDW00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q4102</t>
+          <t>TP213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Q4-Ban Chỉ Huy Quân Sự Quận 4</t>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anh Sinh</t>
+          <t>Anh Sang</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1euWBs86xfddjZSxkJ7Cqc3220j4Agb6GO3GlY6qprCA</t>
+          <t>1rWex6uCGt9dWT9idy6Rv_TADuxblkjswrlczWT-I66w</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VT124</t>
+          <t>HL302</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Anh Triển</t>
+          <t>Anh Sang</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1pY67NcCng1eEMULrWtXbj_TL6HzyeQQsSZJX57jZxDY</t>
+          <t>1BlGgQHUtsfgccDC9ifqL-WbTIpKTt9lRYqO8DifjMWg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VT125</t>
+          <t>BI202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
+          <t>BI-Ban Chỉ Huy Quân Sự Quận Bình Tân</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anh Triển</t>
+          <t>Anh Sinh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1qxwbUQr8EAMkFSSRUK-YTULbbSrBBquJTAtg3JiJlsw</t>
+          <t>1iXl1N0y1hV-63b8REUcfxRU5myUCV16I4w8dkzAgFpc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VT126</t>
+          <t>ST201</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
+          <t>ST-Trường Đại Học Sư Phạm Thể Dục Thể Thao Thành Phố Hồ Chí Minh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anh Triển</t>
+          <t>Anh Sang</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14R8zTZbSBFccC1nkxLh4PABAlHVawys2SPaJ9Zd1I6I</t>
+          <t>1rG83Cd1kALQA2SVQYnSVRDh2dXpqbx7JIfmo9QIxZ7A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>TE112</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1XxR9ebcpRAXjFMHW7KO-sphb70GsEFqawIcnXnDb-Xk</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BH124</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BH-Trường Trung Cấp Kinh Tế Kỹ Thuật Số 2 Biên Hòa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1Uo_RFShYki6393HaYw5A4hEMoTVW8Gg6LCdFPdhAwFI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GL115</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GS-Trung Tâm GDNN - GDTX Huyện Chư Sê, Gia Lai</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1JMtJm5YOCQ5Gd-3ujZYUjxXHdLFuz70AHKk4QB0wOkw</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LO101</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LO-Trung Tâm GDNN - GDTX Huyện Long Thành</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11e3bdR4lUCTFgrbHxaO3yjA7gqItGiSp46DdX4eZ4r4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QC101</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>QC-Ban Chỉ Huy Quân sự Huyện Củ Chi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1cCmZhVd_Xs5J3ayLooa2Xvgyokk08eXw0c4kOG8RQ5E</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TM311</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TM-Trường Cao Đẳng Long An - Cơ Sở Đồng Tháp Mười</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1105ez-_Rmovq5XnPrf5cy4E-jChAEsSZNntv0Vsapks</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TP396</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1AfMAzaXSW16ZgWSbA1rgv2FwwTFZUMPwQfVrI_cZFQM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VS-Trường Cao Đẳng Nghề Việt Nam - Singapore</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16m3UuWYLn_1_NEsg88Moy7VO0DhM7H43_SWKmjjBX24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>XO111</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>XO-Trung Tâm GDNN - GDTX Huyện Thống Nhất, Đồng Nai</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1D-jGAdGGge7CChSOzY3BZaQ0LuLG3d2gbff8J9b32hY</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BR103</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BR-Trung Tâm GDNN Công Đoàn Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1p2z8mPgRaDlvOSarUkrOmUrODlRxbVPYOYd53I9UwGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SG114</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SG-Trường Trung Cấp Du Lịch Và Khách Sạn Sài Gòn Tourist</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1SlwYMe0Fqc862kgILC906XNbSrnr_dnyEhXwCarzm68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C3201</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C3-Trung Tâm Chính Trị Quận 3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1nMxkuWCgk0ytuSnFG9ayHvmmC0yLgFmkq5X9fTJ-6HE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SG112</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SG-Trường Trung Cấp Du Lịch Và Khách Sạn Sài Gòn Tourist</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1J0yfRtSq6Eb0I6CLZNZ_7fhIKogoB7vHlx7cQDX9d9g</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SG113</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SG-Trường Trung Cấp Du Lịch Và Khách Sạn Sài Gòn Tourist</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1VZcWgAzDi7KE9LGfswufgVlXOFRMO90DQfsfsZOPRog</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TB205</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TB-Trung Tâm Chính Trị Quận Tân Bình</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1Ndc-gdxhJV-MaKVC2_9JsDx9f03FKRoZAfrRFXyatmQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TP397</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17mmNH5M1c2dCFVSd0Y6VktR72UjTPYj28Go4XbyNDzI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TP464</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1zcuWSJMdk30vxT4VXkmUXK0KbQ1QvgZSKedHWBgm2F0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>QH202</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>QH-Ban Chỉ Huy Quân sự Huyện Hóc Môn</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1wDaZAFRBFx3d5uTrnodWjwaZWmPXwSj2W4Oge6M2Gxg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TP390</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1so1NzeHMuGnNDamS_38YjJ-P55Cy45BDLIZh3UpsQ6w</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TP393</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10rC5_Qk522F8hecYYf97qkVPNBqUphnas9gtAbCYnWU</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KH139</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KH-Trung Tâm Giáo Dục Thường Xuyên Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1iXz53iCVNc-i4K6zv2BG528qeGzdNj63-0yn99284t8</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TH146</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1j_NmJnMm420VNB2Dg6LTNfoBU0TEaqoMnQ3HM-tV65o</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TN119</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TN-Trung Tâm Giáo Dục Thường Xuyên Tây Ninh</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1XBkkhkv0YKGQxN6O-lk3djex8DrrN5YNDcU2BrzErho</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BA102</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BA-Ban Chỉ Huy Quân Sự Huyện Bình Chánh</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17fui7hHRcrmZJsShGfZEAEVLF8ffoQuXeEIxRUR_sZg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BH123</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BH-Trường Trung Cấp Kinh Tế Kỹ Thuật Số 2 Biên Hòa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1HPbAd_tNnaR3oZQiAvKJ6SfjN9QFZD5xY89VuVS9Iz4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GL114</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GA-Trung Tâm GDNN - GDTX Huyện Đăk Đoa - GIA LAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19bSjuCYj-EQalQmpK9L3KUtM_4qCq0qZjw25qXuW0HA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NH123</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NH-Cơ Sở 5 - Ninh Hoà</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1j0zvVAjlkNr9jdseOjMo7vB224SIF45xSl9uHH0Yzaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PQ107</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PQ-Trung Tâm GDNN - GDTX Thành phố Phú Quốc, Kiên Giang</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1a1tDTTJLaW9MfUtolnHar5ojupvekklPX89R61p3Z2o</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>QB101</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>QB-Ban Chỉ Huy Quân Sự Huyện Nhà Bè</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1tuTcwhiz7OKM5OQTgHg6HMjbC5-vavvBuzk_DE4DY6I</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TE114</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1lx3_OYlBchdm6o59NxDZiJWFg2uDyk3-OAX28Inegdo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TP392</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1t6Z5chifzqGuZp5EQHS85cs61zVMll3Zry471BtXqOg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CC109</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CC-Trường Trung Cấp Nghề Củ Chi</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1DxOlbpVAa-ZF4k4tt_in7QAywJXKlyRt_jSDySXpeQM</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TB109</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TB-Trung Tâm Chính Trị Quận Tân Bình</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1sxiL3cJQzOmnZBTR9wGMb3NEQ01C8kEq09CHje5S9Yk</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TN121</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TN-Trung Tâm Giáo Dục Thường Xuyên Tây Ninh</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1-vJK9B4-OM51moOpzlpgxZfp2qVEESN1ScvbjX5XnT4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TP388</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1iSpVULCbhPzxkU5hLP4PKv61G4dNOgpQnkwbJfUlI10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>XO110</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>XO-Trung Tâm GDNN - GDTX Huyện Thống Nhất, Đồng Nai</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1ISgwezl3SVgMJyY6wy-lTtyqj8El6jl6yLxeLg4hlvA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CX101</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NB-Trường Trung cấp Kỹ thuật - Du lịch Công đoàn Ninh Bình</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1au8eLLcaywpccGCrI3wRoFRIdIs-M7eDUetVdzI-t7U</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Q4102</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Q4-Ban Chỉ Huy Quân Sự Quận 4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1VbY7_MomxW0C-_Ku4rEJqEYgiduIZWy3mIymrQm6MbM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NH124</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NH-Cơ Sở 5 - Ninh Hoà</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1rsJ23_Ovs1UMBe-ZI66Vgnhkhl2wBdW-mhQs22NvoAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>QG103</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QG-Ban Chỉ Huy Quân Sự Quận Gò Vấp</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17bJX5I5EMMS6l98Nqpe5t7GW_bqc5b_YKY4biFD81ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TH148</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1fGR2IPNswi-GefJXSnrIo0_prWn48lDivigZ2nVqgPA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>VT126</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1Cs00ccxNoscmDxPllLW7ZjSZRrkOE0CYwuh5gntPGe4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TE113</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1LG2775fWlJEtXt_ItzVrVOLsrSxX0EJ0oRY9_mgL_0o</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NB102</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NB-Trường Trung cấp Kỹ thuật - Du lịch Công đoàn Ninh Bình</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1CDTQCeD3ibGyc8f8J6GragcazB0PuHIu6IB55Pr24fo</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TE115</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>192ErjHuyBA-UTBtfQPR6PYY9CleAmjpYanawzweMxVg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TP395</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1Ll8pXnmmgvY12QLhjTGyAK9gFj_VUoKR9AVYL3DGlTc</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TH143</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1el93uWJuLWw4076_Ru5srZeBkc8mkJfipWFmTqv6kzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>VS101</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VS-Trường Cao Đẳng Nghề Việt Nam - Singapore</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1IujWYflMeYdupC9KK4lGKDeWCpZ8eyqSwGXjy6G2jiE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>VT124</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1YPPMr62lpa_Fc5yjQ1Vf0mg0qiU8krbZkV6mUkdtiA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CE201</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CE-Trường Cao Đẳng Công Thương TP HCM</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13OF4jOL-G4ZZlw6L7fG6hWFvYp9fjGO9VWduwHfQsCc</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HA201</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HA- BỆNH VIỆN CHỈNH HÌNH VÀ PHỤC HỒI CHỨC NĂNG TPHCM</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1S-DCmIP9sId8KBffS-3fLNNexqbD2Y60moWccL9uLXw</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TP461</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1BckZbd1Z7XZn1_vg0UhMtGkg8nEWDB-86V09e5du7KY</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TH228</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1p2BINTEDUssaBCuSgoQRbaUtJClTfkp6ZqAWgmoUrOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BR105</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BR-Trung Tâm GDNN Công Đoàn Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1Yc_edlZLm0ZMt_OEOx3yDeKq0QMFRR8GckjZKfCMNNQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DH307</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DH-Trường Cao Đẳng Long An - Cơ Sở Đức Hòa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1x4e77uijimGf_boVUncqMZUz8ZMahHlDAOjm1I-xu-Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NX106</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NXD-Trung Tâm Giáo Dục Thường Xuyên Thanh Niên Xung Phong - cơ sở Hóc Môn</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1ziq2FT_MF6L_vB2tPMcysyFM8fVFa1rvqTa_N7y_VuM</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TM310</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TM-Trường Cao Đẳng Long An - Cơ Sở Đồng Tháp Mười</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1ioSKa_A0ToIkYSUtJPdS3SpZ5pMlnzLE9mDbtyvDp8c</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BT320</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BT-Trung Tâm Giáo Dục Thường Xuyên Bến Tre</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1M-2rssBb6YrBp9_4tnY14pHFJPY4QYF1rTE9wcwZIUk</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TN303</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TN-Trung Tâm Giáo Dục Thường Xuyên Tây Ninh</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1FZWF8DRYeFx-URyEn1EXPUeu3tVx4Pj--RYJiZ6PXbs</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BR106</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BR-Trung Tâm GDNN Công Đoàn Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1GtIAbaLzXj4uYD6Mob42aUMxDvPEdvItJPNhLx9800U</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BT322</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BT-Trung Tâm Giáo Dục Thường Xuyên Bến Tre</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1OY6pVOPl06E7JeL8WWE2Cdoos7QyH6GzQ5jO0FYUXl8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TE108</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1nQIQrHiO9fGKoAx1gj3IoDz7AE1og7xo7RV6FzHd_O8</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TE111</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1pGTACfwE1Xl8K-eq9C0SAmZj5juVYwLSyIh0-0xCZ20</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>XO109</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>XO-Trung Tâm GDNN - GDTX Huyện Thống Nhất, Đồng Nai</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1yox_2WhmgyT-0VM8lk1ZTVYroKNsQYzaKgmkTGKBYwE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TE117</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1yNJHSm6arPkyJ6-za1FHpp3fFT_uNldb8Dh83uFFlIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TP394</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1jjxdbOkgbOJGyxb6WsiOTBNsi3p2tkhi9GTqQUqo53g</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>QH102</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>QH-Ban Chỉ Huy Quân sự Huyện Hóc Môn</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1nx315QsO88iUQDd_gV5z3VqH3Fz7SU4rY_IgsdOU2ts</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TB110</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TB-Trung Tâm Chính Trị Quận Tân Bình</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1UHVkHYNw9qX0keLa3Zbh5_mM7ILpZAZvdRMo18pHErc</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SG111</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SG-Trường Trung Cấp Du Lịch Và Khách Sạn Sài Gòn Tourist</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1IcPVzIWMOxHY_WFKXX3B1KOtwG2PkhP1XOBt353t56Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TE116</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1FCp3Gtcz5MXwvyvCATbiUFEEdsuTtA2s1b3bt3vlNIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BH126</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BH-Trường Trung Cấp Kinh Tế Kỹ Thuật Số 2 Biên Hòa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1BiWZtPRDXP-fKf77SYKrmFpNQGlsaT8UmXHU1QKXUXU</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>VT127</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Anh Triển</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1BHvlFlh1OldlcLa0LTdvj9yqqlmMsH8ZJYb8x8_IIXA</t>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1KgN69QExgfKYVDlAnYIxB9RPXo6OKBSY-XJC14DqjWg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TE110</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1Z-okdGc0xThZzpnnDica2Ak22nN4Kar2hrxkERrrRfE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NT401</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1ZT4fqkL9QkdjYX3SlTigskIqTYY1FUY8xb_E-USqccQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>BH122</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BH-Trường Trung Cấp Kinh Tế Kỹ Thuật Số 2 Biên Hòa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1R5cgNoONwOBE_KuUvATAEJVycxq7SWbNhVPVZ2xh-6A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CC110</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CC-Trường Trung Cấp Nghề Củ Chi</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1FwOACT3lskks0tiW8993N38WoxLCaYaE4Bgwq1I0ZMY</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TB108</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TB-Trung Tâm Chính Trị Quận Tân Bình</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12UEsw0el0TdrkdBwRBdqufTbn1y82hzcbrDkxunZRI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TM308</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TM-Trường Cao Đẳng Long An - Cơ Sở Đồng Tháp Mười</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1vpELe46P31zJzOT5uhACQBFxhJKTyPQwktzqZypJNQs</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BH125</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BH-Trường Trung Cấp Kinh Tế Kỹ Thuật Số 2 Biên Hòa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1W6R0ijghy2VrL457-1pitjcLlt-V9Ny_c5MyoYs4tIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TP391</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1P1hIXZC8AuKQ17mhQ77A5w6zOFqn5hCn0EliXsVdhAg</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TH145</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1pW67jNfb_v4gwm3FK-03GunK4IhI7S0yiQstQu-AZag</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VT125</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1Z-qNT3aqx92FTa6dzaZNoxnrEqvljQBUh0gNHxJ7AhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>XL102</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>XL-Trung Tâm GDNN - GDTX  Huyện Xuân Lộc, Đồng Nai</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1jtlDmfO4i7JcJ0udSLzC_4RSDTavR-MjR-6z66SoATU</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>XL103</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>XL-Trung Tâm GDNN - GDTX  Huyện Xuân Lộc, Đồng Nai</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13sjagi0j_7DeRgdLrD_cO-ZDigWYF2CqWCS-UNxfQBg</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DH306</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DH-Trường Cao Đẳng Long An - Cơ Sở Đức Hòa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1aWZrN30IxnbGz1rFlLnyJaw1z7LbReAGvNE7HmyYI4M</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>XO108</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>XO-Trung Tâm GDNN - GDTX Huyện Thống Nhất, Đồng Nai</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>15BrSvolk7IdPMhbIv--RD32GYqwImao9qicEMskYzqE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>BT321</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BT-Trung Tâm Giáo Dục Thường Xuyên Bến Tre</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1wWtNJ6NHDfbyzbLuTDhVURjRp7GiCKHGlngDNoKF3gI</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>QG102</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>QG-Ban Chỉ Huy Quân Sự Quận Gò Vấp</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Anh Sinh</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1N2nGiCQYA65zA-QUGXLrdZE95o1uioQyAyL3TKsHvXM</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NT201</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>12YbKkNssJqnHns2ZNI407mhF_AsqIpv9vdGxVfseY3U</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>GL113</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GK-Trung Tâm Giáo Dục Thường Xuyên Huyện K rông Pa - GIA LAI</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1FRsKlipBWKrf3o5UWApwqlt2G0fsJTbsmIvtnELyOw4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BR104</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>BR-Trung Tâm GDNN Công Đoàn Bà Rịa Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1Xs4eHpLF2sEY1TMf1WTnPVf5D1PWnzCc_fDsCYUMNjY</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TM309</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TM-Trường Cao Đẳng Long An - Cơ Sở Đồng Tháp Mười</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1WnLwaIdUhsC3UaCzQjmpG-JFMfa6Ag3XzNYB3abSR4w</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TN120</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TN-Trung Tâm Giáo Dục Thường Xuyên Tây Ninh</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1tNNEMWBNohxbmkngE2E53QolBLVxDfozI0g-wjqoR1w</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BH1212</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BH-Trường Trung Cấp Kinh Tế Kỹ Thuật Số 2 Biên Hòa</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>19QJWt4wy4RczCVKmXaKtL9cZBT4LWCMUbJbdlKAzb84</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NT101</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NT-Trung Tâm Giáo Dục Thường Xuyên Tỉnh Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1RVAf_hjhrE_E_AA2OunulwJJxDpyqhy6fbrlS1geWtI</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DH305</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DH-Trường Cao Đẳng Long An - Cơ Sở Đức Hòa</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>19lQPOobmxqG1rnQE4mJFi__8rgtRMv0lnTBkPTVroZo</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TE109</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TE-Trường Trung Cấp Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1_8out_5T2zmiIHGunitVu_OlCM7SC5CtQVbF5rMp910</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TH142</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>12VsWZVvdabv4MKYhm-aE9pAndXMIklPz-9n8C3mFoI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TP386</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1gAR0ISsH1ckTXHYV5cHHzq1qRPSFr2rF9IBnlbz4n3w</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CM308</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CM-Trường Cao Đẳng Cộng Đồng Cà Mau</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1QQTUvLtsC9PmaupkWyGLdX2Hh3CMxZQnJ6ft6venKf4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TP389</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1CrXUMItPV5xfCzbbW8LUpUJzYnO9zgsCff1QBliGPMU</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>VS201</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>VS-Trường Cao Đẳng Nghề Việt Nam - Singapore</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Anh Triển</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1v9oB_tS8roNCf3XaGlvTEUIZQXy4C_QjpVioC2FV5HQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>BT319</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>BT-Trung Tâm Giáo Dục Thường Xuyên Bến Tre</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>16F64OviihtNlrOWxczdL7h-l74NtlyFnONHVVph6QdA</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TH144</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TH-Trường Cao Đẳng Bình Thuận</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1OWmeIoqswtDHODmkZNwZlkagflRQ7l5NgGnS3-fwWo0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>HL101</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1EFtEu2cE06iZDfcojQooT9xAIogJXlhyrqgEGnufh6Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TP1014</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TP-Trường Đại Học Mở Thành Phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1OAyqE3FNinv6voTCDGeFr3Unq9gZH8Rfx35t7Df4EUk</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>HL301</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>BT-Trung Tâm Giáo Dục Thường Xuyên Bến Tre</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Anh Sang</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1OMCxKhcx9PAyxE9H-qpAlhyPWEnnR7ZG43EJkPf8rHA</t>
         </is>
       </c>
     </row>
